--- a/阿桃唱过的歌3.1.xlsx
+++ b/阿桃唱过的歌3.1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -11,7 +11,7 @@
     <sheet name="ai_studio_code" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ai_studio_code!$D$1:$D$663</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ai_studio_code!$D$1:$D$662</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2663" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2675" uniqueCount="1119">
   <si>
     <t xml:space="preserve">歌名</t>
   </si>
@@ -2927,25 +2927,7 @@
     <t xml:space="preserve">隐形的翅膀 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">张韶涵</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">张韶涵 </t>
   </si>
   <si>
     <t xml:space="preserve">樱花草</t>
@@ -3783,7 +3765,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
@@ -5615,25 +5597,7 @@
     <t xml:space="preserve">Chain</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Snow*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">Snow* </t>
   </si>
   <si>
     <t xml:space="preserve">CHE.R.RY</t>
@@ -7751,6 +7715,27 @@
   </si>
   <si>
     <t xml:space="preserve">わたしの恋はホッチキス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">轻轻地告诉你</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杨钰莹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">秋意浓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天竺少女</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李玲玉 (西游记插曲)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真夜中のドア～stay with me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">松原美纪 (Miki Matsubara)</t>
   </si>
 </sst>
 </file>
@@ -7761,7 +7746,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -7794,14 +7779,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Segoe UI"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -7861,40 +7840,48 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8034,10 +8021,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D667"/>
+  <dimension ref="A1:D669"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A658" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A669" activeCellId="0" sqref="A669"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8414,13 +8401,13 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -8470,13 +8457,13 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -8526,13 +8513,13 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -8806,13 +8793,13 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -8820,13 +8807,13 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -9016,13 +9003,13 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="4" t="s">
         <v>129</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -9114,13 +9101,13 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -9254,13 +9241,13 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -9338,16 +9325,16 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C93" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="0" t="s">
+      <c r="C93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9422,13 +9409,13 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -9646,13 +9633,13 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="A115" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -9912,13 +9899,13 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+      <c r="A134" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="B134" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C134" s="0" t="s">
+      <c r="C134" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D134" s="1" t="s">
@@ -10136,13 +10123,13 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+      <c r="A150" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="B150" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C150" s="0" t="s">
+      <c r="C150" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D150" s="1" t="s">
@@ -10262,13 +10249,13 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+      <c r="A159" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="B159" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C159" s="0" t="s">
+      <c r="C159" s="4" t="s">
         <v>272</v>
       </c>
       <c r="D159" s="1" t="s">
@@ -10304,13 +10291,13 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+      <c r="A162" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B162" s="0" t="s">
+      <c r="B162" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C162" s="0" t="s">
+      <c r="C162" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D162" s="1" t="s">
@@ -10682,13 +10669,13 @@
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
+      <c r="A189" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B189" s="0" t="s">
+      <c r="B189" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C189" s="0" t="s">
+      <c r="C189" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D189" s="1" t="s">
@@ -10696,13 +10683,13 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
+      <c r="A190" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="B190" s="0" t="s">
+      <c r="B190" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C190" s="0" t="s">
+      <c r="C190" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D190" s="1" t="s">
@@ -10780,13 +10767,13 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
+      <c r="A196" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B196" s="0" t="s">
+      <c r="B196" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C196" s="0" t="s">
+      <c r="C196" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D196" s="1" t="s">
@@ -10794,13 +10781,13 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
+      <c r="A197" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="B197" s="0" t="s">
+      <c r="B197" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C197" s="0" t="s">
+      <c r="C197" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D197" s="1" t="s">
@@ -10822,13 +10809,13 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
+      <c r="A199" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="B199" s="0" t="s">
+      <c r="B199" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C199" s="0" t="s">
+      <c r="C199" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D199" s="1" t="s">
@@ -10920,13 +10907,13 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
+      <c r="A206" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B206" s="0" t="s">
+      <c r="B206" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C206" s="0" t="s">
+      <c r="C206" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D206" s="1" t="s">
@@ -10934,13 +10921,13 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
+      <c r="A207" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="B207" s="0" t="s">
+      <c r="B207" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C207" s="0" t="s">
+      <c r="C207" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D207" s="1" t="s">
@@ -11032,13 +11019,13 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
+      <c r="A214" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="B214" s="0" t="s">
+      <c r="B214" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C214" s="0" t="s">
+      <c r="C214" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D214" s="1" t="s">
@@ -11270,13 +11257,13 @@
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
+      <c r="A231" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B231" s="0" t="s">
+      <c r="B231" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="C231" s="0" t="s">
+      <c r="C231" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D231" s="1" t="s">
@@ -11340,13 +11327,13 @@
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="s">
+      <c r="A236" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="B236" s="0" t="s">
+      <c r="B236" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C236" s="0" t="s">
+      <c r="C236" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D236" s="1" t="s">
@@ -11368,13 +11355,13 @@
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="s">
+      <c r="A238" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="B238" s="0" t="s">
+      <c r="B238" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="C238" s="0" t="s">
+      <c r="C238" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D238" s="1" t="s">
@@ -11480,13 +11467,13 @@
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="0" t="s">
+      <c r="A246" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B246" s="0" t="s">
+      <c r="B246" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C246" s="0" t="s">
+      <c r="C246" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D246" s="1" t="s">
@@ -11634,13 +11621,13 @@
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0" t="s">
+      <c r="A257" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="B257" s="5" t="s">
+      <c r="B257" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C257" s="0" t="s">
+      <c r="C257" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D257" s="1" t="s">
@@ -11662,13 +11649,13 @@
       </c>
     </row>
     <row r="259" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0" t="s">
+      <c r="A259" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="B259" s="0" t="s">
+      <c r="B259" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="C259" s="0" t="s">
+      <c r="C259" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D259" s="1" t="s">
@@ -11718,13 +11705,13 @@
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0" t="s">
+      <c r="A263" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="B263" s="0" t="s">
+      <c r="B263" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="C263" s="0" t="s">
+      <c r="C263" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D263" s="1" t="s">
@@ -11788,13 +11775,13 @@
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="0" t="s">
+      <c r="A268" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="B268" s="0" t="s">
+      <c r="B268" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C268" s="0" t="s">
+      <c r="C268" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D268" s="1" t="s">
@@ -11802,16 +11789,16 @@
       </c>
     </row>
     <row r="269" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="4" t="s">
+      <c r="A269" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="B269" s="6" t="s">
+      <c r="B269" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="C269" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D269" s="0" t="s">
+      <c r="C269" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D269" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11830,13 +11817,13 @@
       </c>
     </row>
     <row r="271" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="0" t="s">
+      <c r="A271" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="B271" s="0" t="s">
+      <c r="B271" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="C271" s="0" t="s">
+      <c r="C271" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D271" s="1" t="s">
@@ -11872,13 +11859,13 @@
       </c>
     </row>
     <row r="274" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="0" t="s">
+      <c r="A274" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B274" s="5" t="s">
+      <c r="B274" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C274" s="0" t="s">
+      <c r="C274" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D274" s="1" t="s">
@@ -11914,13 +11901,13 @@
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="0" t="s">
+      <c r="A277" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="B277" s="0" t="s">
+      <c r="B277" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="C277" s="0" t="s">
+      <c r="C277" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D277" s="1" t="s">
@@ -12040,13 +12027,13 @@
       </c>
     </row>
     <row r="286" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="0" t="s">
+      <c r="A286" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="B286" s="0" t="s">
+      <c r="B286" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C286" s="0" t="s">
+      <c r="C286" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D286" s="1" t="s">
@@ -12111,10 +12098,10 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>474</v>
+        <v>219</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>6</v>
@@ -12124,13 +12111,13 @@
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B292" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C292" s="1" t="s">
+      <c r="A292" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C292" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D292" s="1" t="s">
@@ -12138,13 +12125,13 @@
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="0" t="s">
-        <v>476</v>
-      </c>
-      <c r="B293" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="C293" s="0" t="s">
+      <c r="A293" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C293" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D293" s="1" t="s">
@@ -12152,13 +12139,13 @@
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C294" s="1" t="s">
+      <c r="A294" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C294" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D294" s="1" t="s">
@@ -12166,13 +12153,13 @@
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="B295" s="0" t="s">
-        <v>479</v>
-      </c>
-      <c r="C295" s="0" t="s">
+      <c r="A295" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C295" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D295" s="1" t="s">
@@ -12181,10 +12168,10 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>367</v>
+        <v>59</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>6</v>
@@ -12195,10 +12182,10 @@
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>6</v>
@@ -12209,10 +12196,10 @@
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>6</v>
@@ -12221,12 +12208,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>10</v>
+        <v>485</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>6</v>
@@ -12237,10 +12224,10 @@
     </row>
     <row r="300" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>6</v>
@@ -12249,12 +12236,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>487</v>
+        <v>458</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>6</v>
@@ -12264,13 +12251,13 @@
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C302" s="1" t="s">
+      <c r="A302" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C302" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D302" s="1" t="s">
@@ -12278,13 +12265,13 @@
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="0" t="s">
-        <v>489</v>
-      </c>
-      <c r="B303" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="C303" s="0" t="s">
+      <c r="A303" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C303" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D303" s="1" t="s">
@@ -12293,10 +12280,10 @@
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>6</v>
@@ -12307,10 +12294,10 @@
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>493</v>
+        <v>242</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>6</v>
@@ -12320,13 +12307,13 @@
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C306" s="1" t="s">
+      <c r="A306" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C306" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D306" s="1" t="s">
@@ -12334,13 +12321,13 @@
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="0" t="s">
-        <v>495</v>
-      </c>
-      <c r="B307" s="0" t="s">
-        <v>496</v>
-      </c>
-      <c r="C307" s="0" t="s">
+      <c r="A307" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C307" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D307" s="1" t="s">
@@ -12348,27 +12335,27 @@
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C308" s="1" t="s">
+      <c r="A308" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C308" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="0" t="s">
-        <v>499</v>
-      </c>
-      <c r="B309" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="C309" s="0" t="s">
+    <row r="309" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C309" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D309" s="1" t="s">
@@ -12377,10 +12364,10 @@
     </row>
     <row r="310" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="3" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>6</v>
@@ -12389,12 +12376,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="B311" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>506</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>6</v>
@@ -12405,10 +12392,10 @@
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="3" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>506</v>
+        <v>18</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>6</v>
@@ -12419,10 +12406,10 @@
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>18</v>
+        <v>509</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>6</v>
@@ -12433,10 +12420,10 @@
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>6</v>
@@ -12447,10 +12434,10 @@
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="B315" s="3" t="s">
-        <v>219</v>
+        <v>511</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>6</v>
@@ -12461,10 +12448,10 @@
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>89</v>
+        <v>512</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>513</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>6</v>
@@ -12475,7 +12462,7 @@
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="3" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>513</v>
@@ -12488,25 +12475,25 @@
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="B318" s="3" t="s">
-        <v>513</v>
+      <c r="A318" s="1" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>515</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>6</v>
+        <v>516</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>6</v>
+        <v>517</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="1" t="n">
-        <v>8.8</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>515</v>
+      <c r="A319" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>519</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>516</v>
@@ -12515,12 +12502,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="1" t="s">
-        <v>518</v>
+    <row r="320" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="3" t="s">
+        <v>520</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>516</v>
@@ -12531,10 +12518,10 @@
     </row>
     <row r="321" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>523</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>516</v>
@@ -12545,10 +12532,10 @@
     </row>
     <row r="322" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>525</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>516</v>
@@ -12559,10 +12546,10 @@
     </row>
     <row r="323" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="3" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>516</v>
@@ -12571,12 +12558,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="B324" s="3" t="s">
-        <v>527</v>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>529</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>516</v>
@@ -12587,10 +12574,10 @@
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>516</v>
@@ -12601,10 +12588,10 @@
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>516</v>
@@ -12613,9 +12600,9 @@
         <v>517</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>533</v>
@@ -12627,12 +12614,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>536</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>516</v>
@@ -12641,12 +12628,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B329" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>538</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>516</v>
@@ -12655,12 +12642,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>516</v>
@@ -12671,7 +12658,7 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>540</v>
@@ -12685,10 +12672,10 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>516</v>
@@ -12699,10 +12686,10 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>516</v>
@@ -12711,12 +12698,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>547</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>516</v>
@@ -12727,9 +12714,9 @@
     </row>
     <row r="335" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="B335" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B335" s="5" t="s">
         <v>547</v>
       </c>
       <c r="C335" s="1" t="s">
@@ -12741,9 +12728,9 @@
     </row>
     <row r="336" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B336" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B336" s="5" t="s">
         <v>547</v>
       </c>
       <c r="C336" s="1" t="s">
@@ -12755,9 +12742,9 @@
     </row>
     <row r="337" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="B337" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B337" s="5" t="s">
         <v>547</v>
       </c>
       <c r="C337" s="1" t="s">
@@ -12767,12 +12754,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B338" s="4" t="s">
-        <v>547</v>
+        <v>551</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>552</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>516</v>
@@ -12783,10 +12770,10 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>516</v>
@@ -12797,10 +12784,10 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>516</v>
@@ -12811,10 +12798,10 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>558</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>516</v>
@@ -12823,12 +12810,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="B342" s="3" t="s">
-        <v>558</v>
+        <v>559</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>560</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>516</v>
@@ -12837,12 +12824,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>516</v>
@@ -12853,7 +12840,7 @@
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>562</v>
@@ -12865,12 +12852,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
+      </c>
+      <c r="B345" s="5" t="s">
+        <v>565</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>516</v>
@@ -12879,12 +12866,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="B346" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>567</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>516</v>
@@ -12893,12 +12880,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="B347" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>569</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>516</v>
@@ -12907,14 +12894,14 @@
         <v>517</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="C348" s="1" t="s">
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C348" s="4" t="s">
         <v>516</v>
       </c>
       <c r="D348" s="1" t="s">
@@ -12922,25 +12909,25 @@
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="0" t="s">
-        <v>570</v>
-      </c>
-      <c r="B349" s="0" t="s">
+      <c r="A349" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B349" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="C349" s="0" t="s">
+      <c r="C349" s="1" t="s">
         <v>516</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>574</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>516</v>
@@ -12949,12 +12936,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>574</v>
+        <v>525</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>516</v>
@@ -12965,10 +12952,10 @@
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>525</v>
+        <v>577</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>516</v>
@@ -12979,7 +12966,7 @@
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>577</v>
@@ -12993,10 +12980,10 @@
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>516</v>
@@ -13005,29 +12992,29 @@
         <v>517</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B355" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>516</v>
+    <row r="355" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C355" s="4" t="s">
+        <v>583</v>
       </c>
       <c r="D355" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="0" t="s">
-        <v>581</v>
-      </c>
-      <c r="B356" s="0" t="s">
-        <v>582</v>
-      </c>
-      <c r="C356" s="0" t="s">
-        <v>583</v>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>517</v>
@@ -13035,10 +13022,10 @@
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>516</v>
@@ -13049,10 +13036,10 @@
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>516</v>
@@ -13062,27 +13049,27 @@
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="B359" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="C359" s="1" t="s">
+      <c r="A359" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C359" s="4" t="s">
         <v>516</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="0" t="s">
-        <v>590</v>
-      </c>
-      <c r="B360" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="C360" s="0" t="s">
+    <row r="360" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C360" s="1" t="s">
         <v>516</v>
       </c>
       <c r="D360" s="1" t="s">
@@ -13091,10 +13078,10 @@
     </row>
     <row r="361" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="B361" s="3" t="s">
-        <v>592</v>
+        <v>593</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>594</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>516</v>
@@ -13103,12 +13090,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>594</v>
+        <v>531</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>516</v>
@@ -13117,12 +13104,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>531</v>
+        <v>596</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>597</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>516</v>
@@ -13131,12 +13118,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="B364" s="3" t="s">
-        <v>597</v>
+        <v>598</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>599</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>516</v>
@@ -13147,10 +13134,10 @@
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>580</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>516</v>
@@ -13161,10 +13148,10 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="B366" s="3" t="s">
-        <v>580</v>
+        <v>601</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>602</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>516</v>
@@ -13175,10 +13162,10 @@
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>604</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>516</v>
@@ -13187,12 +13174,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="B368" s="3" t="s">
-        <v>604</v>
+        <v>605</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>516</v>
@@ -13203,10 +13190,10 @@
     </row>
     <row r="369" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>606</v>
+        <v>538</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>516</v>
@@ -13215,12 +13202,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>538</v>
+        <v>609</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>516</v>
@@ -13229,15 +13216,15 @@
         <v>517</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>516</v>
+        <v>612</v>
       </c>
       <c r="D371" s="1" t="s">
         <v>517</v>
@@ -13245,13 +13232,13 @@
     </row>
     <row r="372" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>614</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>612</v>
+        <v>516</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>517</v>
@@ -13259,10 +13246,10 @@
     </row>
     <row r="373" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="B373" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>616</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>516</v>
@@ -13271,12 +13258,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>516</v>
@@ -13287,10 +13274,10 @@
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>516</v>
@@ -13301,10 +13288,10 @@
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>622</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>516</v>
@@ -13315,10 +13302,10 @@
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="B377" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>624</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>516</v>
@@ -13329,10 +13316,10 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="B378" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>626</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>516</v>
@@ -13341,12 +13328,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>516</v>
@@ -13357,7 +13344,7 @@
     </row>
     <row r="380" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>628</v>
@@ -13369,12 +13356,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>516</v>
@@ -13385,10 +13372,10 @@
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B382" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>633</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>516</v>
@@ -13399,10 +13386,10 @@
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>516</v>
@@ -13411,12 +13398,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B384" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>637</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>516</v>
@@ -13425,40 +13412,40 @@
         <v>517</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="B385" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="C385" s="1" t="s">
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="B385" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C385" s="4" t="s">
         <v>516</v>
       </c>
       <c r="D385" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="0" t="s">
-        <v>638</v>
-      </c>
-      <c r="B386" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="C386" s="0" t="s">
+    <row r="386" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="C386" s="1" t="s">
         <v>516</v>
       </c>
       <c r="D386" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>516</v>
@@ -13469,10 +13456,10 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="B388" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>644</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>516</v>
@@ -13483,10 +13470,10 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>525</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>516</v>
@@ -13495,12 +13482,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="B390" s="3" t="s">
-        <v>525</v>
+        <v>646</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>538</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>516</v>
@@ -13509,12 +13496,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="B391" s="1" t="s">
-        <v>538</v>
+        <v>647</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>648</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>516</v>
@@ -13525,10 +13512,10 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="B392" s="3" t="s">
-        <v>648</v>
+        <v>649</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>650</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>516</v>
@@ -13539,10 +13526,10 @@
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>652</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>516</v>
@@ -13553,10 +13540,10 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="B394" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>516</v>
@@ -13567,10 +13554,10 @@
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>516</v>
@@ -13579,29 +13566,29 @@
         <v>517</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="B396" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="C396" s="1" t="s">
-        <v>516</v>
+    <row r="396" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B396" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="C396" s="4" t="s">
+        <v>658</v>
       </c>
       <c r="D396" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="0" t="s">
-        <v>656</v>
-      </c>
-      <c r="B397" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="C397" s="0" t="s">
-        <v>658</v>
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="D397" s="1" t="s">
         <v>517</v>
@@ -13609,10 +13596,10 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>660</v>
+        <v>616</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>516</v>
@@ -13622,13 +13609,13 @@
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="B399" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="C399" s="1" t="s">
+      <c r="A399" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="B399" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C399" s="4" t="s">
         <v>516</v>
       </c>
       <c r="D399" s="1" t="s">
@@ -13636,13 +13623,13 @@
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="0" t="s">
-        <v>662</v>
-      </c>
-      <c r="B400" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="C400" s="0" t="s">
+      <c r="A400" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C400" s="1" t="s">
         <v>516</v>
       </c>
       <c r="D400" s="1" t="s">
@@ -13651,10 +13638,10 @@
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>516</v>
@@ -13665,10 +13652,10 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B402" s="3" t="s">
-        <v>666</v>
+        <v>667</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>668</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>516</v>
@@ -13679,10 +13666,10 @@
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="B403" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>670</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>516</v>
@@ -13693,10 +13680,10 @@
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="B404" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>672</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>516</v>
@@ -13707,10 +13694,10 @@
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>525</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>516</v>
@@ -13721,10 +13708,10 @@
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>516</v>
@@ -13735,7 +13722,7 @@
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>675</v>
@@ -13748,13 +13735,13 @@
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="B408" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="C408" s="1" t="s">
+      <c r="A408" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B408" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C408" s="4" t="s">
         <v>516</v>
       </c>
       <c r="D408" s="1" t="s">
@@ -13762,13 +13749,13 @@
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="0" t="s">
-        <v>677</v>
-      </c>
-      <c r="B409" s="0" t="s">
-        <v>571</v>
-      </c>
-      <c r="C409" s="0" t="s">
+      <c r="A409" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C409" s="1" t="s">
         <v>516</v>
       </c>
       <c r="D409" s="1" t="s">
@@ -13777,10 +13764,10 @@
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>587</v>
+        <v>680</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>516</v>
@@ -13790,39 +13777,39 @@
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="B411" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="C411" s="1" t="s">
+      <c r="A411" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="B411" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C411" s="4" t="s">
         <v>516</v>
       </c>
       <c r="D411" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="0" t="s">
-        <v>681</v>
-      </c>
-      <c r="B412" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="C412" s="0" t="s">
+    <row r="412" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C412" s="1" t="s">
         <v>516</v>
       </c>
       <c r="D412" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="B413" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>685</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>516</v>
@@ -13831,29 +13818,29 @@
         <v>517</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="B414" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="C414" s="1" t="s">
-        <v>516</v>
+    <row r="414" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="B414" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="C414" s="4" t="s">
+        <v>688</v>
       </c>
       <c r="D414" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="0" t="s">
-        <v>686</v>
-      </c>
-      <c r="B415" s="0" t="s">
-        <v>687</v>
-      </c>
-      <c r="C415" s="0" t="s">
-        <v>688</v>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="D415" s="1" t="s">
         <v>517</v>
@@ -13861,10 +13848,10 @@
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>692</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>516</v>
@@ -13875,10 +13862,10 @@
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B417" s="3" t="s">
-        <v>692</v>
+        <v>693</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>694</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>516</v>
@@ -13889,10 +13876,10 @@
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>694</v>
+        <v>556</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>516</v>
@@ -13903,10 +13890,10 @@
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>556</v>
+        <v>697</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>516</v>
@@ -13917,10 +13904,10 @@
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>699</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>516</v>
@@ -13931,10 +13918,10 @@
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>516</v>
@@ -13945,10 +13932,10 @@
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="B422" s="3" t="s">
-        <v>701</v>
+        <v>702</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>703</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>516</v>
@@ -13959,10 +13946,10 @@
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="B423" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>567</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>516</v>
@@ -13973,10 +13960,10 @@
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>567</v>
+        <v>706</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>516</v>
@@ -13986,13 +13973,13 @@
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="B425" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="C425" s="1" t="s">
+      <c r="A425" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="B425" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="C425" s="4" t="s">
         <v>516</v>
       </c>
       <c r="D425" s="1" t="s">
@@ -14000,13 +13987,13 @@
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="0" t="s">
-        <v>707</v>
-      </c>
-      <c r="B426" s="0" t="s">
-        <v>708</v>
-      </c>
-      <c r="C426" s="0" t="s">
+      <c r="A426" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C426" s="1" t="s">
         <v>516</v>
       </c>
       <c r="D426" s="1" t="s">
@@ -14015,7 +14002,7 @@
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>378</v>
@@ -14029,10 +14016,10 @@
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>516</v>
@@ -14042,27 +14029,27 @@
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="B429" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="C429" s="1" t="s">
+      <c r="A429" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="B429" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="C429" s="4" t="s">
         <v>516</v>
       </c>
       <c r="D429" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="B430" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="C430" s="0" t="s">
+    <row r="430" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C430" s="1" t="s">
         <v>516</v>
       </c>
       <c r="D430" s="1" t="s">
@@ -14071,10 +14058,10 @@
     </row>
     <row r="431" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="B431" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>717</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>516</v>
@@ -14083,12 +14070,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="B432" s="3" t="s">
-        <v>717</v>
+        <v>718</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>719</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>516</v>
@@ -14099,10 +14086,10 @@
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>516</v>
@@ -14113,10 +14100,10 @@
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="B434" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>519</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>516</v>
@@ -14127,10 +14114,10 @@
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="B435" s="3" t="s">
-        <v>519</v>
+        <v>723</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>724</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>516</v>
@@ -14141,10 +14128,10 @@
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>516</v>
@@ -14155,10 +14142,10 @@
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>516</v>
@@ -14169,10 +14156,10 @@
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="B438" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>730</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>516</v>
@@ -14181,12 +14168,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="B439" s="3" t="s">
-        <v>730</v>
+        <v>731</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>732</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>516</v>
@@ -14195,12 +14182,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>516</v>
@@ -14211,10 +14198,10 @@
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>516</v>
@@ -14225,10 +14212,10 @@
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>726</v>
+        <v>737</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>516</v>
@@ -14239,10 +14226,10 @@
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="B443" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>525</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>516</v>
@@ -14251,12 +14238,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="B444" s="3" t="s">
-        <v>525</v>
+        <v>739</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>740</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>516</v>
@@ -14265,14 +14252,14 @@
         <v>517</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="B445" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="C445" s="1" t="s">
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="B445" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C445" s="4" t="s">
         <v>516</v>
       </c>
       <c r="D445" s="1" t="s">
@@ -14280,13 +14267,13 @@
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="0" t="s">
-        <v>741</v>
-      </c>
-      <c r="B446" s="0" t="s">
-        <v>571</v>
-      </c>
-      <c r="C446" s="0" t="s">
+      <c r="A446" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="C446" s="1" t="s">
         <v>516</v>
       </c>
       <c r="D446" s="1" t="s">
@@ -14295,10 +14282,10 @@
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="B447" s="3" t="s">
-        <v>743</v>
+        <v>744</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>635</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>516</v>
@@ -14309,10 +14296,10 @@
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="B448" s="1" t="s">
-        <v>635</v>
+        <v>745</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>746</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>516</v>
@@ -14323,10 +14310,10 @@
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="B449" s="3" t="s">
-        <v>746</v>
+        <v>747</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>602</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>516</v>
@@ -14337,10 +14324,10 @@
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="B450" s="1" t="s">
-        <v>602</v>
+        <v>748</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>749</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>516</v>
@@ -14349,12 +14336,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>516</v>
@@ -14363,12 +14350,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>751</v>
+        <v>378</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>516</v>
@@ -14379,10 +14366,10 @@
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="B453" s="3" t="s">
-        <v>378</v>
+        <v>753</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>516</v>
@@ -14393,10 +14380,10 @@
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="B454" s="1" t="s">
-        <v>59</v>
+        <v>754</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>755</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>516</v>
@@ -14407,10 +14394,10 @@
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>755</v>
+        <v>685</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>516</v>
@@ -14419,12 +14406,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="B456" s="3" t="s">
-        <v>685</v>
+        <v>757</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>758</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>516</v>
@@ -14433,12 +14420,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="B457" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>760</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>516</v>
@@ -14448,41 +14435,41 @@
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="B458" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="C458" s="1" t="s">
+      <c r="A458" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B458" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="C458" s="4" t="s">
         <v>516</v>
       </c>
       <c r="D458" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="0" t="s">
-        <v>761</v>
-      </c>
-      <c r="B459" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="C459" s="0" t="s">
+    <row r="459" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B459" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C459" s="4" t="s">
         <v>516</v>
       </c>
       <c r="D459" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="0" t="s">
-        <v>762</v>
-      </c>
-      <c r="B460" s="0" t="s">
-        <v>763</v>
-      </c>
-      <c r="C460" s="0" t="s">
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C460" s="1" t="s">
         <v>516</v>
       </c>
       <c r="D460" s="1" t="s">
@@ -14491,10 +14478,10 @@
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>516</v>
@@ -14505,10 +14492,10 @@
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="B462" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>746</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>516</v>
@@ -14519,10 +14506,10 @@
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>746</v>
+        <v>770</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>516</v>
@@ -14533,10 +14520,10 @@
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>516</v>
@@ -14545,12 +14532,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>516</v>
@@ -14561,7 +14548,7 @@
     </row>
     <row r="466" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>774</v>
@@ -14575,10 +14562,10 @@
     </row>
     <row r="467" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="B467" s="3" t="s">
-        <v>774</v>
+        <v>776</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>777</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>516</v>
@@ -14587,12 +14574,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>777</v>
+        <v>556</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>516</v>
@@ -14603,10 +14590,10 @@
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>556</v>
+        <v>780</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>516</v>
@@ -14617,10 +14604,10 @@
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="B470" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>782</v>
       </c>
       <c r="C470" s="1" t="s">
         <v>516</v>
@@ -14631,10 +14618,10 @@
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="B471" s="3" t="s">
-        <v>782</v>
+        <v>783</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>784</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>516</v>
@@ -14645,10 +14632,10 @@
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>516</v>
@@ -14659,10 +14646,10 @@
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>786</v>
+        <v>531</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>516</v>
@@ -14673,10 +14660,10 @@
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>531</v>
+        <v>734</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>516</v>
@@ -14687,10 +14674,10 @@
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>734</v>
+        <v>790</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>516</v>
@@ -14701,10 +14688,10 @@
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="B476" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>743</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>516</v>
@@ -14715,10 +14702,10 @@
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="B477" s="3" t="s">
-        <v>743</v>
+        <v>792</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>793</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>516</v>
@@ -14729,10 +14716,10 @@
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>793</v>
+        <v>697</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>516</v>
@@ -14741,43 +14728,43 @@
         <v>517</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="B479" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="C479" s="1" t="s">
-        <v>516</v>
+    <row r="479" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="B479" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="C479" s="4" t="s">
+        <v>612</v>
       </c>
       <c r="D479" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="0" t="s">
-        <v>795</v>
-      </c>
-      <c r="B480" s="0" t="s">
-        <v>796</v>
-      </c>
-      <c r="C480" s="0" t="s">
-        <v>612</v>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="D480" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>516</v>
+        <v>801</v>
       </c>
       <c r="D481" s="1" t="s">
         <v>517</v>
@@ -14785,52 +14772,52 @@
     </row>
     <row r="482" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>801</v>
+        <v>516</v>
       </c>
       <c r="D482" s="1" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="B483" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="C483" s="1" t="s">
-        <v>516</v>
+      <c r="A483" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="B483" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="C483" s="4" t="s">
+        <v>806</v>
       </c>
       <c r="D483" s="1" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="0" t="s">
-        <v>804</v>
-      </c>
-      <c r="B484" s="0" t="s">
-        <v>805</v>
-      </c>
-      <c r="C484" s="0" t="s">
-        <v>806</v>
+      <c r="A484" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="D484" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="485" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="B485" s="3" t="s">
-        <v>808</v>
+        <v>809</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>810</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>516</v>
@@ -14841,10 +14828,10 @@
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>810</v>
+        <v>602</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>516</v>
@@ -14855,10 +14842,10 @@
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>602</v>
+        <v>734</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>516</v>
@@ -14869,10 +14856,10 @@
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>734</v>
+        <v>814</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>516</v>
@@ -14883,10 +14870,10 @@
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>814</v>
+        <v>571</v>
       </c>
       <c r="C489" s="1" t="s">
         <v>516</v>
@@ -14897,10 +14884,10 @@
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>571</v>
+        <v>817</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>516</v>
@@ -14909,12 +14896,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>516</v>
@@ -14925,10 +14912,10 @@
     </row>
     <row r="492" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="B492" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>821</v>
       </c>
       <c r="C492" s="1" t="s">
         <v>516</v>
@@ -14937,12 +14924,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="493" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="1" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>821</v>
+        <v>519</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>516</v>
@@ -14952,14 +14939,14 @@
       </c>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="1" t="s">
-        <v>822</v>
+      <c r="A494" s="3" t="s">
+        <v>823</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>519</v>
+        <v>824</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>516</v>
+        <v>825</v>
       </c>
       <c r="D494" s="1" t="s">
         <v>517</v>
@@ -14967,13 +14954,13 @@
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="3" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>825</v>
+        <v>516</v>
       </c>
       <c r="D495" s="1" t="s">
         <v>517</v>
@@ -14981,10 +14968,10 @@
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="3" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>516</v>
@@ -14995,10 +14982,10 @@
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="3" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C497" s="1" t="s">
         <v>516</v>
@@ -15009,10 +14996,10 @@
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="B498" s="3" t="s">
-        <v>831</v>
+        <v>832</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>734</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>516</v>
@@ -15023,7 +15010,7 @@
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="3" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>734</v>
@@ -15037,10 +15024,10 @@
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="B500" s="1" t="s">
-        <v>734</v>
+        <v>834</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>831</v>
       </c>
       <c r="C500" s="1" t="s">
         <v>516</v>
@@ -15051,13 +15038,13 @@
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="3" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>516</v>
+        <v>825</v>
       </c>
       <c r="D501" s="1" t="s">
         <v>517</v>
@@ -15065,13 +15052,13 @@
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="B502" s="3" t="s">
-        <v>836</v>
+        <v>837</v>
+      </c>
+      <c r="B502" s="8" t="s">
+        <v>838</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>825</v>
+        <v>516</v>
       </c>
       <c r="D502" s="1" t="s">
         <v>517</v>
@@ -15079,10 +15066,10 @@
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="B503" s="7" t="s">
-        <v>838</v>
+        <v>839</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>827</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>516</v>
@@ -15093,10 +15080,10 @@
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="B504" s="3" t="s">
-        <v>827</v>
+        <v>840</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>841</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>516</v>
@@ -15107,13 +15094,13 @@
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="B505" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>843</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>516</v>
+        <v>825</v>
       </c>
       <c r="D505" s="1" t="s">
         <v>517</v>
@@ -15121,13 +15108,13 @@
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="3" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>843</v>
+        <v>585</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>825</v>
+        <v>516</v>
       </c>
       <c r="D506" s="1" t="s">
         <v>517</v>
@@ -15135,10 +15122,10 @@
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="B507" s="3" t="s">
-        <v>585</v>
+        <v>845</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>846</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>516</v>
@@ -15149,10 +15136,10 @@
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="3" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>516</v>
@@ -15161,12 +15148,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="3" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>848</v>
+        <v>708</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>516</v>
@@ -15177,7 +15164,7 @@
     </row>
     <row r="510" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="3" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B510" s="1" t="s">
         <v>708</v>
@@ -15189,12 +15176,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="511" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="B511" s="1" t="s">
-        <v>708</v>
+        <v>851</v>
+      </c>
+      <c r="B511" s="3" t="s">
+        <v>852</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>516</v>
@@ -15205,10 +15192,10 @@
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="B512" s="3" t="s">
-        <v>852</v>
+        <v>853</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>854</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>516</v>
@@ -15219,13 +15206,13 @@
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="B513" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
+      </c>
+      <c r="B513" s="3" t="s">
+        <v>856</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>516</v>
+        <v>825</v>
       </c>
       <c r="D513" s="1" t="s">
         <v>517</v>
@@ -15233,13 +15220,13 @@
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="3" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>825</v>
+        <v>516</v>
       </c>
       <c r="D514" s="1" t="s">
         <v>517</v>
@@ -15247,24 +15234,24 @@
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="B515" s="3" t="s">
-        <v>858</v>
+        <v>859</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>860</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>516</v>
+        <v>825</v>
       </c>
       <c r="D515" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="3" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>825</v>
@@ -15273,15 +15260,15 @@
         <v>517</v>
       </c>
     </row>
-    <row r="517" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="B517" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
+      </c>
+      <c r="B517" s="3" t="s">
+        <v>864</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>825</v>
+        <v>516</v>
       </c>
       <c r="D517" s="1" t="s">
         <v>517</v>
@@ -15289,10 +15276,10 @@
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="B518" s="3" t="s">
-        <v>864</v>
+        <v>865</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>734</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>516</v>
@@ -15303,13 +15290,13 @@
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="B519" s="1" t="s">
-        <v>734</v>
+        <v>866</v>
+      </c>
+      <c r="B519" s="3" t="s">
+        <v>867</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>516</v>
+        <v>825</v>
       </c>
       <c r="D519" s="1" t="s">
         <v>517</v>
@@ -15317,10 +15304,10 @@
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="3" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>825</v>
@@ -15331,13 +15318,13 @@
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="B521" s="3" t="s">
-        <v>869</v>
+        <v>870</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>556</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>825</v>
+        <v>516</v>
       </c>
       <c r="D521" s="1" t="s">
         <v>517</v>
@@ -15345,10 +15332,10 @@
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="3" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>556</v>
+        <v>872</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>516</v>
@@ -15358,11 +15345,11 @@
       </c>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="3" t="s">
-        <v>871</v>
-      </c>
-      <c r="B523" s="1" t="s">
-        <v>872</v>
+      <c r="A523" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="B523" s="4" t="s">
+        <v>874</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>516</v>
@@ -15372,11 +15359,11 @@
       </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="8" t="s">
-        <v>873</v>
-      </c>
-      <c r="B524" s="0" t="s">
-        <v>874</v>
+      <c r="A524" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="B524" s="3" t="s">
+        <v>525</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>516</v>
@@ -15387,10 +15374,10 @@
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="3" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>525</v>
+        <v>864</v>
       </c>
       <c r="C525" s="1" t="s">
         <v>516</v>
@@ -15401,10 +15388,10 @@
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="3" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>864</v>
+        <v>525</v>
       </c>
       <c r="C526" s="1" t="s">
         <v>516</v>
@@ -15415,7 +15402,7 @@
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="3" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B527" s="3" t="s">
         <v>525</v>
@@ -15429,10 +15416,10 @@
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="3" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>525</v>
+        <v>880</v>
       </c>
       <c r="C528" s="1" t="s">
         <v>516</v>
@@ -15443,13 +15430,13 @@
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="3" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>516</v>
+        <v>825</v>
       </c>
       <c r="D529" s="1" t="s">
         <v>517</v>
@@ -15457,10 +15444,10 @@
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="3" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="C530" s="1" t="s">
         <v>825</v>
@@ -15471,13 +15458,13 @@
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="B531" s="3" t="s">
-        <v>884</v>
+        <v>885</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>886</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>825</v>
+        <v>516</v>
       </c>
       <c r="D531" s="1" t="s">
         <v>517</v>
@@ -15485,10 +15472,10 @@
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="B532" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
+      </c>
+      <c r="B532" s="3" t="s">
+        <v>888</v>
       </c>
       <c r="C532" s="1" t="s">
         <v>516</v>
@@ -15497,12 +15484,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="3" t="s">
-        <v>887</v>
-      </c>
-      <c r="B533" s="3" t="s">
-        <v>888</v>
+        <v>889</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>890</v>
       </c>
       <c r="C533" s="1" t="s">
         <v>516</v>
@@ -15511,12 +15498,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="534" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="3" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C534" s="1" t="s">
         <v>516</v>
@@ -15527,10 +15514,10 @@
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="3" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>516</v>
@@ -15541,13 +15528,13 @@
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="3" t="s">
-        <v>893</v>
-      </c>
-      <c r="B536" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>896</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>516</v>
+        <v>825</v>
       </c>
       <c r="D536" s="1" t="s">
         <v>517</v>
@@ -15555,13 +15542,13 @@
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="3" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>825</v>
+        <v>516</v>
       </c>
       <c r="D537" s="1" t="s">
         <v>517</v>
@@ -15569,10 +15556,10 @@
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="3" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>898</v>
+        <v>827</v>
       </c>
       <c r="C538" s="1" t="s">
         <v>516</v>
@@ -15583,7 +15570,7 @@
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="3" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B539" s="3" t="s">
         <v>827</v>
@@ -15595,29 +15582,29 @@
         <v>517</v>
       </c>
     </row>
-    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="3" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>827</v>
+        <v>902</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>516</v>
+        <v>903</v>
       </c>
       <c r="D540" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="541" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="B541" s="3" t="s">
-        <v>902</v>
+        <v>904</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>903</v>
+        <v>516</v>
       </c>
       <c r="D541" s="1" t="s">
         <v>517</v>
@@ -15625,10 +15612,10 @@
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="3" t="s">
-        <v>904</v>
-      </c>
-      <c r="B542" s="1" t="s">
-        <v>292</v>
+        <v>905</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>906</v>
       </c>
       <c r="C542" s="1" t="s">
         <v>516</v>
@@ -15637,12 +15624,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="B543" s="3" t="s">
-        <v>906</v>
+        <v>907</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>908</v>
       </c>
       <c r="C543" s="1" t="s">
         <v>516</v>
@@ -15651,12 +15638,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="544" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="B544" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>864</v>
       </c>
       <c r="C544" s="1" t="s">
         <v>516</v>
@@ -15667,10 +15654,10 @@
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="3" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>864</v>
+        <v>911</v>
       </c>
       <c r="C545" s="1" t="s">
         <v>516</v>
@@ -15681,10 +15668,10 @@
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="3" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C546" s="1" t="s">
         <v>516</v>
@@ -15695,10 +15682,10 @@
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="3" t="s">
-        <v>912</v>
-      </c>
-      <c r="B547" s="3" t="s">
-        <v>913</v>
+        <v>914</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>915</v>
       </c>
       <c r="C547" s="1" t="s">
         <v>516</v>
@@ -15709,13 +15696,13 @@
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="3" t="s">
-        <v>914</v>
-      </c>
-      <c r="B548" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>917</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>516</v>
+        <v>825</v>
       </c>
       <c r="D548" s="1" t="s">
         <v>517</v>
@@ -15723,10 +15710,10 @@
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="3" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>825</v>
@@ -15737,13 +15724,13 @@
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="3" t="s">
-        <v>918</v>
-      </c>
-      <c r="B550" s="3" t="s">
-        <v>919</v>
+        <v>920</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>921</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>825</v>
+        <v>516</v>
       </c>
       <c r="D550" s="1" t="s">
         <v>517</v>
@@ -15751,10 +15738,10 @@
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="3" t="s">
-        <v>920</v>
-      </c>
-      <c r="B551" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>864</v>
       </c>
       <c r="C551" s="1" t="s">
         <v>516</v>
@@ -15765,10 +15752,10 @@
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="B552" s="3" t="s">
-        <v>864</v>
+        <v>923</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>708</v>
       </c>
       <c r="C552" s="1" t="s">
         <v>516</v>
@@ -15779,7 +15766,7 @@
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="3" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B553" s="1" t="s">
         <v>708</v>
@@ -15793,10 +15780,10 @@
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="3" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>708</v>
+        <v>734</v>
       </c>
       <c r="C554" s="1" t="s">
         <v>516</v>
@@ -15805,12 +15792,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="3" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>734</v>
+        <v>927</v>
       </c>
       <c r="C555" s="1" t="s">
         <v>516</v>
@@ -15819,15 +15806,15 @@
         <v>517</v>
       </c>
     </row>
-    <row r="556" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="3" t="s">
-        <v>926</v>
-      </c>
-      <c r="B556" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>929</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>516</v>
+        <v>825</v>
       </c>
       <c r="D556" s="1" t="s">
         <v>517</v>
@@ -15835,13 +15822,13 @@
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="B557" s="3" t="s">
-        <v>929</v>
+        <v>930</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>931</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>825</v>
+        <v>516</v>
       </c>
       <c r="D557" s="1" t="s">
         <v>517</v>
@@ -15849,10 +15836,10 @@
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="3" t="s">
-        <v>930</v>
-      </c>
-      <c r="B558" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>933</v>
       </c>
       <c r="C558" s="1" t="s">
         <v>516</v>
@@ -15863,10 +15850,10 @@
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="3" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>933</v>
+        <v>685</v>
       </c>
       <c r="C559" s="1" t="s">
         <v>516</v>
@@ -15877,10 +15864,10 @@
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="3" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>685</v>
+        <v>936</v>
       </c>
       <c r="C560" s="1" t="s">
         <v>516</v>
@@ -15891,10 +15878,10 @@
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="3" t="s">
-        <v>935</v>
-      </c>
-      <c r="B561" s="3" t="s">
-        <v>936</v>
+        <v>937</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>938</v>
       </c>
       <c r="C561" s="1" t="s">
         <v>516</v>
@@ -15905,10 +15892,10 @@
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="3" t="s">
-        <v>937</v>
-      </c>
-      <c r="B562" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>782</v>
       </c>
       <c r="C562" s="1" t="s">
         <v>516</v>
@@ -15917,9 +15904,9 @@
         <v>517</v>
       </c>
     </row>
-    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="3" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B563" s="3" t="s">
         <v>782</v>
@@ -15931,15 +15918,15 @@
         <v>517</v>
       </c>
     </row>
-    <row r="564" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="3" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>782</v>
+        <v>942</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>516</v>
+        <v>943</v>
       </c>
       <c r="D564" s="1" t="s">
         <v>517</v>
@@ -15947,24 +15934,24 @@
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="3" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>943</v>
+        <v>516</v>
       </c>
       <c r="D565" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="3" t="s">
-        <v>944</v>
-      </c>
-      <c r="B566" s="3" t="s">
-        <v>945</v>
+        <v>946</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>947</v>
       </c>
       <c r="C566" s="1" t="s">
         <v>516</v>
@@ -15973,12 +15960,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="567" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="3" t="s">
-        <v>946</v>
-      </c>
-      <c r="B567" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
+      </c>
+      <c r="B567" s="3" t="s">
+        <v>913</v>
       </c>
       <c r="C567" s="1" t="s">
         <v>516</v>
@@ -15989,10 +15976,10 @@
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="B568" s="3" t="s">
-        <v>913</v>
+        <v>949</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>950</v>
       </c>
       <c r="C568" s="1" t="s">
         <v>516</v>
@@ -16001,12 +15988,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="3" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="C569" s="1" t="s">
         <v>516</v>
@@ -16017,10 +16004,10 @@
     </row>
     <row r="570" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="3" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C570" s="1" t="s">
         <v>516</v>
@@ -16029,12 +16016,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="571" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="3" t="s">
-        <v>953</v>
-      </c>
-      <c r="B571" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
+      </c>
+      <c r="B571" s="3" t="s">
+        <v>913</v>
       </c>
       <c r="C571" s="1" t="s">
         <v>516</v>
@@ -16045,10 +16032,10 @@
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="3" t="s">
-        <v>955</v>
-      </c>
-      <c r="B572" s="3" t="s">
-        <v>913</v>
+        <v>956</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>734</v>
       </c>
       <c r="C572" s="1" t="s">
         <v>516</v>
@@ -16057,12 +16044,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="3" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>734</v>
+        <v>814</v>
       </c>
       <c r="C573" s="1" t="s">
         <v>516</v>
@@ -16073,10 +16060,10 @@
     </row>
     <row r="574" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="3" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>814</v>
+        <v>959</v>
       </c>
       <c r="C574" s="1" t="s">
         <v>516</v>
@@ -16085,12 +16072,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="575" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="3" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>959</v>
+        <v>846</v>
       </c>
       <c r="C575" s="1" t="s">
         <v>516</v>
@@ -16101,10 +16088,10 @@
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="B576" s="1" t="s">
-        <v>846</v>
+        <v>961</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>962</v>
       </c>
       <c r="C576" s="1" t="s">
         <v>516</v>
@@ -16115,7 +16102,7 @@
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="3" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B577" s="3" t="s">
         <v>962</v>
@@ -16129,10 +16116,10 @@
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="3" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>962</v>
+        <v>906</v>
       </c>
       <c r="C578" s="1" t="s">
         <v>516</v>
@@ -16143,38 +16130,38 @@
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="3" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>906</v>
+        <v>966</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>516</v>
+        <v>825</v>
       </c>
       <c r="D579" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="3" t="s">
-        <v>965</v>
-      </c>
-      <c r="B580" s="3" t="s">
-        <v>966</v>
+        <v>967</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>594</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>825</v>
+        <v>516</v>
       </c>
       <c r="D580" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="581" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="B581" s="1" t="s">
-        <v>594</v>
+        <v>968</v>
+      </c>
+      <c r="B581" s="3" t="s">
+        <v>969</v>
       </c>
       <c r="C581" s="1" t="s">
         <v>516</v>
@@ -16185,10 +16172,10 @@
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="3" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>969</v>
+        <v>864</v>
       </c>
       <c r="C582" s="1" t="s">
         <v>516</v>
@@ -16199,10 +16186,10 @@
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="3" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>864</v>
+        <v>972</v>
       </c>
       <c r="C583" s="1" t="s">
         <v>516</v>
@@ -16213,10 +16200,10 @@
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="3" t="s">
-        <v>971</v>
-      </c>
-      <c r="B584" s="3" t="s">
-        <v>972</v>
+        <v>973</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>854</v>
       </c>
       <c r="C584" s="1" t="s">
         <v>516</v>
@@ -16227,10 +16214,10 @@
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="3" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>854</v>
+        <v>697</v>
       </c>
       <c r="C585" s="1" t="s">
         <v>516</v>
@@ -16241,10 +16228,10 @@
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="3" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>697</v>
+        <v>976</v>
       </c>
       <c r="C586" s="1" t="s">
         <v>516</v>
@@ -16253,12 +16240,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="3" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="C587" s="1" t="s">
         <v>516</v>
@@ -16267,12 +16254,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="588" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="3" t="s">
-        <v>977</v>
-      </c>
-      <c r="B588" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>913</v>
       </c>
       <c r="C588" s="1" t="s">
         <v>516</v>
@@ -16281,12 +16268,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="B589" s="3" t="s">
-        <v>913</v>
+        <v>980</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>981</v>
       </c>
       <c r="C589" s="1" t="s">
         <v>516</v>
@@ -16295,29 +16282,29 @@
         <v>517</v>
       </c>
     </row>
-    <row r="590" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="3" t="s">
-        <v>980</v>
-      </c>
-      <c r="B590" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>983</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>516</v>
+        <v>825</v>
       </c>
       <c r="D590" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="3" t="s">
-        <v>982</v>
-      </c>
-      <c r="B591" s="3" t="s">
-        <v>983</v>
+    <row r="591" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A591" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>985</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>825</v>
+        <v>516</v>
       </c>
       <c r="D591" s="1" t="s">
         <v>517</v>
@@ -16325,10 +16312,10 @@
     </row>
     <row r="592" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="B592" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>987</v>
       </c>
       <c r="C592" s="1" t="s">
         <v>516</v>
@@ -16337,12 +16324,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="593" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>987</v>
+        <v>567</v>
       </c>
       <c r="C593" s="1" t="s">
         <v>516</v>
@@ -16351,12 +16338,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>567</v>
+        <v>990</v>
       </c>
       <c r="C594" s="1" t="s">
         <v>516</v>
@@ -16365,12 +16352,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="595" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="B595" s="3" t="s">
-        <v>990</v>
+        <v>991</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>976</v>
       </c>
       <c r="C595" s="1" t="s">
         <v>516</v>
@@ -16381,10 +16368,10 @@
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="1" t="s">
-        <v>991</v>
-      </c>
-      <c r="B596" s="1" t="s">
-        <v>976</v>
+        <v>992</v>
+      </c>
+      <c r="B596" s="3" t="s">
+        <v>993</v>
       </c>
       <c r="C596" s="1" t="s">
         <v>516</v>
@@ -16393,12 +16380,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="B597" s="3" t="s">
-        <v>993</v>
+        <v>994</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>995</v>
       </c>
       <c r="C597" s="1" t="s">
         <v>516</v>
@@ -16409,7 +16396,7 @@
     </row>
     <row r="598" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B598" s="1" t="s">
         <v>995</v>
@@ -16421,12 +16408,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="599" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A599" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="C599" s="1" t="s">
         <v>516</v>
@@ -16435,29 +16422,29 @@
         <v>517</v>
       </c>
     </row>
-    <row r="600" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A600" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="B600" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="C600" s="1" t="s">
-        <v>516</v>
+    <row r="600" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A600" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="B600" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="C600" s="4" t="s">
+        <v>1000</v>
       </c>
       <c r="D600" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="601" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="0" t="s">
-        <v>999</v>
-      </c>
-      <c r="B601" s="0" t="s">
-        <v>708</v>
-      </c>
-      <c r="C601" s="0" t="s">
-        <v>1000</v>
+    <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A601" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="D601" s="1" t="s">
         <v>517</v>
@@ -16465,10 +16452,10 @@
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B602" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
+      </c>
+      <c r="B602" s="3" t="s">
+        <v>743</v>
       </c>
       <c r="C602" s="1" t="s">
         <v>516</v>
@@ -16477,9 +16464,9 @@
         <v>517</v>
       </c>
     </row>
-    <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B603" s="3" t="s">
         <v>743</v>
@@ -16491,12 +16478,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="604" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>743</v>
+        <v>1006</v>
       </c>
       <c r="C604" s="1" t="s">
         <v>516</v>
@@ -16505,12 +16492,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B605" s="3" t="s">
-        <v>1006</v>
+        <v>1007</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>1008</v>
       </c>
       <c r="C605" s="1" t="s">
         <v>516</v>
@@ -16519,12 +16506,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="606" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B606" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
+      </c>
+      <c r="B606" s="3" t="s">
+        <v>1010</v>
       </c>
       <c r="C606" s="1" t="s">
         <v>516</v>
@@ -16533,68 +16520,68 @@
         <v>517</v>
       </c>
     </row>
-    <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B607" s="3" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C607" s="1" t="s">
-        <v>516</v>
+    <row r="607" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A607" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B607" s="6" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C607" s="4" t="s">
+        <v>1013</v>
       </c>
       <c r="D607" s="1" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="0" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B608" s="5" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C608" s="0" t="s">
-        <v>1013</v>
+      <c r="A608" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B608" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="D608" s="1" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B609" s="3" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C609" s="1" t="s">
-        <v>516</v>
+      <c r="A609" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B609" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C609" s="4" t="s">
+        <v>1017</v>
       </c>
       <c r="D609" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="610" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="0" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B610" s="0" t="s">
-        <v>571</v>
-      </c>
-      <c r="C610" s="0" t="s">
-        <v>1017</v>
+    <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A610" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B610" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="D610" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B611" s="3" t="s">
-        <v>1019</v>
+        <v>1020</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>1021</v>
       </c>
       <c r="C611" s="1" t="s">
         <v>516</v>
@@ -16604,39 +16591,39 @@
       </c>
     </row>
     <row r="612" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A612" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B612" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C612" s="1" t="s">
-        <v>516</v>
+      <c r="A612" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B612" s="6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C612" s="4" t="s">
+        <v>1024</v>
       </c>
       <c r="D612" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="613" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="0" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B613" s="5" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C613" s="0" t="s">
-        <v>1024</v>
+    <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A613" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="D613" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="1" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="C614" s="1" t="s">
         <v>516</v>
@@ -16645,12 +16632,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="615" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B615" s="3" t="s">
-        <v>1028</v>
+        <v>1029</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>1030</v>
       </c>
       <c r="C615" s="1" t="s">
         <v>516</v>
@@ -16661,10 +16648,10 @@
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B616" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
+      </c>
+      <c r="B616" s="3" t="s">
+        <v>993</v>
       </c>
       <c r="C616" s="1" t="s">
         <v>516</v>
@@ -16675,10 +16662,10 @@
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B617" s="3" t="s">
-        <v>993</v>
+        <v>1032</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>602</v>
       </c>
       <c r="C617" s="1" t="s">
         <v>516</v>
@@ -16687,29 +16674,29 @@
         <v>517</v>
       </c>
     </row>
-    <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B618" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="C618" s="1" t="s">
-        <v>516</v>
+    <row r="618" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A618" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B618" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C618" s="4" t="s">
+        <v>1035</v>
       </c>
       <c r="D618" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="619" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="0" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B619" s="0" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C619" s="0" t="s">
-        <v>1035</v>
+    <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A619" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="D619" s="1" t="s">
         <v>517</v>
@@ -16717,10 +16704,10 @@
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>708</v>
+        <v>533</v>
       </c>
       <c r="C620" s="1" t="s">
         <v>516</v>
@@ -16729,12 +16716,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>533</v>
+        <v>998</v>
       </c>
       <c r="C621" s="1" t="s">
         <v>516</v>
@@ -16743,12 +16730,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="622" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B622" s="1" t="s">
-        <v>998</v>
+        <v>1039</v>
+      </c>
+      <c r="B622" s="3" t="s">
+        <v>567</v>
       </c>
       <c r="C622" s="1" t="s">
         <v>516</v>
@@ -16757,12 +16744,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>567</v>
+        <v>1041</v>
       </c>
       <c r="C623" s="1" t="s">
         <v>516</v>
@@ -16771,12 +16758,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="624" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="1" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B624" s="3" t="s">
-        <v>1041</v>
+        <v>1042</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>1043</v>
       </c>
       <c r="C624" s="1" t="s">
         <v>516</v>
@@ -16787,10 +16774,10 @@
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B625" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
+      </c>
+      <c r="B625" s="3" t="s">
+        <v>1015</v>
       </c>
       <c r="C625" s="1" t="s">
         <v>516</v>
@@ -16801,10 +16788,10 @@
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B626" s="3" t="s">
-        <v>1015</v>
+        <v>1045</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>635</v>
       </c>
       <c r="C626" s="1" t="s">
         <v>516</v>
@@ -16815,10 +16802,10 @@
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B627" s="1" t="s">
-        <v>635</v>
+        <v>1046</v>
+      </c>
+      <c r="B627" s="3" t="s">
+        <v>902</v>
       </c>
       <c r="C627" s="1" t="s">
         <v>516</v>
@@ -16829,10 +16816,10 @@
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B628" s="3" t="s">
-        <v>902</v>
+        <v>1047</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C628" s="1" t="s">
         <v>516</v>
@@ -16843,7 +16830,7 @@
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B629" s="1" t="s">
         <v>59</v>
@@ -16855,29 +16842,29 @@
         <v>517</v>
       </c>
     </row>
-    <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B630" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C630" s="1" t="s">
-        <v>516</v>
+    <row r="630" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A630" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B630" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C630" s="4" t="s">
+        <v>1051</v>
       </c>
       <c r="D630" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="631" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="0" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B631" s="0" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C631" s="0" t="s">
-        <v>1051</v>
+    <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B631" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="D631" s="1" t="s">
         <v>517</v>
@@ -16885,10 +16872,10 @@
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>1015</v>
+        <v>1054</v>
       </c>
       <c r="C632" s="1" t="s">
         <v>516</v>
@@ -16897,37 +16884,37 @@
         <v>517</v>
       </c>
     </row>
-    <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B633" s="3" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C633" s="1" t="s">
-        <v>516</v>
+    <row r="633" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A633" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B633" s="6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C633" s="4" t="s">
+        <v>1057</v>
       </c>
       <c r="D633" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="634" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="0" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B634" s="5" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C634" s="0" t="s">
-        <v>1057</v>
+    <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A634" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C634" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="D634" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B635" s="1" t="s">
         <v>728</v>
@@ -16939,12 +16926,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="636" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>728</v>
+        <v>620</v>
       </c>
       <c r="C636" s="1" t="s">
         <v>516</v>
@@ -16953,29 +16940,29 @@
         <v>517</v>
       </c>
     </row>
-    <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="1" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B637" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="C637" s="1" t="s">
-        <v>516</v>
+    <row r="637" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A637" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B637" s="6" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C637" s="4" t="s">
+        <v>1063</v>
       </c>
       <c r="D637" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="638" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="0" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B638" s="5" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C638" s="0" t="s">
-        <v>1063</v>
+    <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A638" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B638" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="D638" s="1" t="s">
         <v>517</v>
@@ -16983,10 +16970,10 @@
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B639" s="3" t="s">
-        <v>1065</v>
+        <v>1066</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>523</v>
       </c>
       <c r="C639" s="1" t="s">
         <v>516</v>
@@ -16995,12 +16982,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="1" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B640" s="1" t="s">
-        <v>523</v>
+        <v>1067</v>
+      </c>
+      <c r="B640" s="3" t="s">
+        <v>1041</v>
       </c>
       <c r="C640" s="1" t="s">
         <v>516</v>
@@ -17009,12 +16996,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="641" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="1" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B641" s="3" t="s">
-        <v>1041</v>
+        <v>1068</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>1069</v>
       </c>
       <c r="C641" s="1" t="s">
         <v>516</v>
@@ -17025,10 +17012,10 @@
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="1" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="C642" s="1" t="s">
         <v>516</v>
@@ -17037,12 +17024,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>1071</v>
+        <v>660</v>
       </c>
       <c r="C643" s="1" t="s">
         <v>516</v>
@@ -17053,10 +17040,10 @@
     </row>
     <row r="644" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>660</v>
+        <v>1074</v>
       </c>
       <c r="C644" s="1" t="s">
         <v>516</v>
@@ -17067,10 +17054,10 @@
     </row>
     <row r="645" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="1" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="C645" s="1" t="s">
         <v>516</v>
@@ -17080,39 +17067,39 @@
       </c>
     </row>
     <row r="646" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="1" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B646" s="1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C646" s="1" t="s">
-        <v>516</v>
+      <c r="A646" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B646" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C646" s="4" t="s">
+        <v>1078</v>
       </c>
       <c r="D646" s="1" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="0" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B647" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="C647" s="0" t="s">
-        <v>1078</v>
+      <c r="A647" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="D647" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="648" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="1" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>1080</v>
+        <v>1050</v>
       </c>
       <c r="C648" s="1" t="s">
         <v>516</v>
@@ -17123,10 +17110,10 @@
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="1" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B649" s="1" t="s">
-        <v>1050</v>
+        <v>1082</v>
+      </c>
+      <c r="B649" s="3" t="s">
+        <v>1083</v>
       </c>
       <c r="C649" s="1" t="s">
         <v>516</v>
@@ -17135,40 +17122,40 @@
         <v>517</v>
       </c>
     </row>
-    <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="1" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B650" s="3" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C650" s="1" t="s">
-        <v>516</v>
+    <row r="650" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A650" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B650" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C650" s="4" t="s">
+        <v>1085</v>
       </c>
       <c r="D650" s="1" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="0" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B651" s="0" t="s">
-        <v>571</v>
-      </c>
-      <c r="C651" s="0" t="s">
-        <v>1085</v>
+      <c r="A651" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C651" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="D651" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="652" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="1" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="C652" s="1" t="s">
         <v>516</v>
@@ -17179,10 +17166,10 @@
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B653" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
+      </c>
+      <c r="B653" s="3" t="s">
+        <v>746</v>
       </c>
       <c r="C653" s="1" t="s">
         <v>516</v>
@@ -17191,12 +17178,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>746</v>
+        <v>913</v>
       </c>
       <c r="C654" s="1" t="s">
         <v>516</v>
@@ -17205,12 +17192,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="655" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B655" s="3" t="s">
-        <v>913</v>
+        <v>1092</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>1093</v>
       </c>
       <c r="C655" s="1" t="s">
         <v>516</v>
@@ -17221,10 +17208,10 @@
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="1" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B656" s="1" t="s">
-        <v>1093</v>
+        <v>1094</v>
+      </c>
+      <c r="B656" s="3" t="s">
+        <v>913</v>
       </c>
       <c r="C656" s="1" t="s">
         <v>516</v>
@@ -17235,10 +17222,10 @@
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B657" s="3" t="s">
-        <v>913</v>
+        <v>1096</v>
       </c>
       <c r="C657" s="1" t="s">
         <v>516</v>
@@ -17247,40 +17234,40 @@
         <v>517</v>
       </c>
     </row>
-    <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="1" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B658" s="3" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C658" s="1" t="s">
-        <v>516</v>
+    <row r="658" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A658" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B658" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C658" s="4" t="s">
+        <v>1098</v>
       </c>
       <c r="D658" s="1" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A659" s="0" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B659" s="0" t="s">
-        <v>571</v>
-      </c>
-      <c r="C659" s="0" t="s">
-        <v>1098</v>
+      <c r="A659" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C659" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="D659" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="660" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="1" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B660" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
+      </c>
+      <c r="B660" s="3" t="s">
+        <v>1102</v>
       </c>
       <c r="C660" s="1" t="s">
         <v>516</v>
@@ -17291,10 +17278,10 @@
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="1" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>1102</v>
+        <v>652</v>
       </c>
       <c r="C661" s="1" t="s">
         <v>516</v>
@@ -17303,29 +17290,29 @@
         <v>517</v>
       </c>
     </row>
-    <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="1" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B662" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="C662" s="1" t="s">
-        <v>516</v>
+    <row r="662" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A662" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B662" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C662" s="4" t="s">
+        <v>1106</v>
       </c>
       <c r="D662" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="663" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="0" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B663" s="0" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C663" s="0" t="s">
-        <v>1106</v>
+    <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A663" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B663" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="D663" s="1" t="s">
         <v>517</v>
@@ -17333,10 +17320,10 @@
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B664" s="3" t="s">
-        <v>1108</v>
+        <v>1109</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>1110</v>
       </c>
       <c r="C664" s="1" t="s">
         <v>516</v>
@@ -17345,12 +17332,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="665" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="1" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>1110</v>
+        <v>1074</v>
       </c>
       <c r="C665" s="1" t="s">
         <v>516</v>
@@ -17359,30 +17346,67 @@
         <v>517</v>
       </c>
     </row>
-    <row r="666" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="1" t="s">
-        <v>1111</v>
+    <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A666" s="10" t="s">
+        <v>1112</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>1074</v>
+        <v>1113</v>
       </c>
       <c r="C666" s="1" t="s">
-        <v>516</v>
+        <v>6</v>
       </c>
       <c r="D666" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="0"/>
-      <c r="B667" s="0"/>
-      <c r="C667" s="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A667" s="10" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C667" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D667" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A668" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C668" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D668" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A669" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C669" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D669" s="1" t="s">
+        <v>517</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D663"/>
+  <autoFilter ref="D1:D662"/>
   <hyperlinks>
-    <hyperlink ref="B269" r:id="rId1" display="张韶涵"/>
-    <hyperlink ref="B503" r:id="rId2" display="Snow*"/>
+    <hyperlink ref="B269" r:id="rId1" display="张韶涵 "/>
+    <hyperlink ref="B502" r:id="rId2" display="Snow* "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
